--- a/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CS_06_04_REC140.xlsx
+++ b/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CS_06_04_REC140.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="167">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -548,34 +548,31 @@
     <t>Códice mendocino</t>
   </si>
   <si>
-    <t>Ninos aztecas</t>
-  </si>
-  <si>
-    <t>Vida cotidiana en mesoamerica</t>
-  </si>
-  <si>
     <t>Sociedad azteca</t>
   </si>
   <si>
     <t>Aztecas tejiendo</t>
   </si>
   <si>
-    <t>Códice mendoza matrimonio</t>
-  </si>
-  <si>
-    <t>Códice mendosino</t>
-  </si>
-  <si>
     <t>Educación prehispánica</t>
   </si>
   <si>
-    <t>IMG01</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
     <t>Horizontal</t>
+  </si>
+  <si>
+    <t>IMG09</t>
+  </si>
+  <si>
+    <t>Vida cotidiana en mesoamérica</t>
+  </si>
+  <si>
+    <t>Niños aztecas</t>
+  </si>
+  <si>
+    <t>Códice Mendoza matrimonio</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2315,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2526,8 +2523,12 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("n",IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_06_04_REC140_IMG01n.png</v>
@@ -2561,8 +2562,12 @@
         <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F25" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("n",IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_06_04_REC140_IMG02n.png</v>
@@ -2596,8 +2601,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_04_REC140_IMG03n.png</v>
@@ -2615,7 +2624,7 @@
         <v/>
       </c>
       <c r="J12" s="84" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K12" s="18"/>
     </row>
@@ -2631,8 +2640,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_04_REC140_IMG04n.png</v>
@@ -2650,7 +2663,7 @@
         <v/>
       </c>
       <c r="J13" s="84" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K13" s="18"/>
     </row>
@@ -2666,8 +2679,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_04_REC140_IMG05n.png</v>
@@ -2686,7 +2703,7 @@
         <v/>
       </c>
       <c r="J14" s="84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K14" s="18"/>
     </row>
@@ -2702,8 +2719,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_04_REC140_IMG06n.png</v>
@@ -2721,7 +2742,7 @@
         <v/>
       </c>
       <c r="J15" s="85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K15" s="20"/>
     </row>
@@ -2737,8 +2758,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_04_REC140_IMG07n.png</v>
@@ -2756,7 +2781,7 @@
         <v/>
       </c>
       <c r="J16" s="86" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K16" s="36"/>
     </row>
@@ -2772,8 +2797,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Recurso </v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_04_REC140_IMG08n.png</v>
@@ -2791,13 +2820,13 @@
         <v/>
       </c>
       <c r="J17" s="85" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" s="88" t="s">
         <v>155</v>
@@ -2807,14 +2836,14 @@
         <v xml:space="preserve">Recurso </v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>CS_06_04_REC140_IMG01n.png</v>
+        <v>CS_06_04_REC140_IMG09n.png</v>
       </c>
       <c r="G18" s="13">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E23,'Definición técnica de imagenes'!F21)),'Definición técnica de imagenes'!E24),"")</f>
@@ -2829,7 +2858,7 @@
         <v/>
       </c>
       <c r="J18" s="85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K18" s="20"/>
     </row>
